--- a/Especial_Uniandes_2023/1. CV/data/student-comments.xlsx
+++ b/Especial_Uniandes_2023/1. CV/data/student-comments.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF029C48-55AD-44A3-A121-45D97273AC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F1A2D4-F2D3-46AF-911F-C1DCB6103933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>what</t>
   </si>
@@ -83,6 +83,34 @@
   </si>
   <si>
     <t>\textit{'Es un buen profesor que se esfuerza para que aprendamos y seamos personas con sentido crítico y que explica mediante metodologías que facilitan la comprensión de los temas'}</t>
+  </si>
+  <si>
+    <t>Dirección trabajos de grado</t>
+  </si>
+  <si>
+    <t>2020-2023</t>
+  </si>
+  <si>
+    <t>\textit{'Excelente todo el procesos investigativo'}</t>
+  </si>
+  <si>
+    <t>\textit{'Muy buen acompañamiento en el proceso de formación'}</t>
+  </si>
+  <si>
+    <r>
+      <t>\textit{'Me encantó la supervisión por parte de Juan David, fue muy claro en su enseñanza, y aprendí muchas cosas importantes para mi vida profesional</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -572,11 +600,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -901,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -917,7 +942,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -934,94 +959,152 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="E3" s="1" t="s">
+    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="E4" s="1" t="s">
+    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="E5" s="1" t="s">
+    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2015</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Especial_Uniandes_2023/1. CV/data/student-comments.xlsx
+++ b/Especial_Uniandes_2023/1. CV/data/student-comments.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F1A2D4-F2D3-46AF-911F-C1DCB6103933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DCEB57-401F-441D-AD46-0ADA92509715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>Comentarios incluyen:</t>
   </si>
   <si>
-    <t>Taller Proyecto de Grado I</t>
-  </si>
-  <si>
     <t>Fuentes y estilos de documentación en psicología</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
       </rPr>
       <t>'}</t>
     </r>
+  </si>
+  <si>
+    <t>Trabajo Proyecto de Grado I</t>
   </si>
 </sst>
 </file>
@@ -929,7 +929,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -963,16 +963,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,13 +1001,13 @@
         <v>2018</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1036,13 +1036,13 @@
         <v>2015</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1071,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
